--- a/src/main/resources/excel-template/customerTemplate.xlsx
+++ b/src/main/resources/excel-template/customerTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmy41\Desktop\hhzy\hhzy_crm\src\main\resources\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE2C274-C60E-4B99-B20D-DDB80C63EE6B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AAB5A0-D1CC-43AD-B240-3E4B4D07ED6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -344,33 +344,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -660,59 +657,59 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10" style="2" customWidth="1"/>
-    <col min="17" max="17" width="26.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.21875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="28.21875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.21875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="10" style="8" customWidth="1"/>
+    <col min="17" max="17" width="26.6640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="28.21875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="49.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:23" s="3" customFormat="1" ht="49.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:23" s="9" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" s="6" customFormat="1" ht="70.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -773,447 +770,447 @@
       <c r="T2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
     <row r="3" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>43734</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>15874394259</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3" t="s">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>43735</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>18797469884</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>43735</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>17726103809</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3" t="s">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>43736</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>18074308752</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3" t="s">
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>43736</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>15874338866</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T7" xr:uid="{00000000-0009-0000-0000-000000000000}">
